--- a/Mifos Automation Excels/Client/2582-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2582-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -165,21 +165,6 @@
     <t>$ 5,000</t>
   </si>
   <si>
-    <t>$ 73.97</t>
-  </si>
-  <si>
-    <t>$ 907.3</t>
-  </si>
-  <si>
-    <t>$ 833.33</t>
-  </si>
-  <si>
-    <t>$ 852.51</t>
-  </si>
-  <si>
-    <t>$ 19.18</t>
-  </si>
-  <si>
     <t>L33</t>
   </si>
   <si>
@@ -193,6 +178,27 @@
   </si>
   <si>
     <t>Accrual</t>
+  </si>
+  <si>
+    <t>L3778</t>
+  </si>
+  <si>
+    <t>$ 100</t>
+  </si>
+  <si>
+    <t>$ 909.09</t>
+  </si>
+  <si>
+    <t>$ 1,009.09</t>
+  </si>
+  <si>
+    <t>L3814</t>
+  </si>
+  <si>
+    <t>$ 90.91</t>
+  </si>
+  <si>
+    <t>$ 1,000</t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -331,20 +337,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +660,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,10 +692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +709,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -719,7 +729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>10000</v>
       </c>
@@ -736,14 +746,13 @@
       <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>600.01</v>
+        <v>600</v>
       </c>
       <c r="B3" s="6">
-        <v>189.64</v>
+        <v>190.91</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -752,13 +761,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>410.37</v>
+        <v>409.09</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -778,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -809,7 +818,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +915,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -933,7 +942,7 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -956,7 +965,7 @@
         <v>9090.91</v>
       </c>
       <c r="H4" s="6">
-        <v>96.99</v>
+        <v>100</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -965,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="9">
-        <v>1006.08</v>
+        <v>1009.09</v>
       </c>
       <c r="L4" s="9">
-        <v>1006.08</v>
+        <v>1009.09</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
@@ -1001,7 +1010,7 @@
         <v>8181.82</v>
       </c>
       <c r="H5" s="6">
-        <v>92.65</v>
+        <v>90.91</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1009,11 +1018,11 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="9">
-        <v>1001.74</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1001.74</v>
+      <c r="K5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1000</v>
       </c>
       <c r="M5" s="6">
         <v>0</v>
@@ -1044,7 +1053,7 @@
         <v>7272.73</v>
       </c>
       <c r="H6" s="6">
-        <v>80.7</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1053,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>989.79</v>
+        <v>990.91</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -1065,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>989.79</v>
+        <v>990.91</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1087,7 +1096,7 @@
         <v>6363.64</v>
       </c>
       <c r="H7" s="6">
-        <v>74.12</v>
+        <v>72.73</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1096,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>983.21</v>
+        <v>981.82</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -1108,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>983.21</v>
+        <v>981.82</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1130,7 +1139,7 @@
         <v>5454.55</v>
       </c>
       <c r="H8" s="6">
-        <v>62.76</v>
+        <v>63.64</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1139,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>971.85</v>
+        <v>972.73</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1151,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>971.85</v>
+        <v>972.73</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1173,7 +1182,7 @@
         <v>4545.46</v>
       </c>
       <c r="H9" s="6">
-        <v>55.59</v>
+        <v>54.55</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1182,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <v>964.68</v>
+        <v>963.64</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -1194,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>964.68</v>
+        <v>963.64</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1216,7 +1225,7 @@
         <v>3636.37</v>
       </c>
       <c r="H10" s="6">
-        <v>46.33</v>
+        <v>45.45</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1225,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>955.42</v>
+        <v>954.54</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -1237,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>955.42</v>
+        <v>954.54</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1259,7 +1268,7 @@
         <v>2727.28</v>
       </c>
       <c r="H11" s="6">
-        <v>35.869999999999997</v>
+        <v>36.36</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1268,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>944.96</v>
+        <v>945.45</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -1280,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>944.96</v>
+        <v>945.45</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1302,7 +1311,7 @@
         <v>1818.19</v>
       </c>
       <c r="H12" s="6">
-        <v>27.8</v>
+        <v>27.27</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1311,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6">
-        <v>936.89</v>
+        <v>936.36</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -1323,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>936.89</v>
+        <v>936.36</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1345,7 +1354,7 @@
         <v>909.1</v>
       </c>
       <c r="H13" s="6">
-        <v>17.93</v>
+        <v>18.18</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1354,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="6">
-        <v>927.02</v>
+        <v>927.27</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -1366,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>927.02</v>
+        <v>927.27</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1388,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>9.27</v>
+        <v>9.09</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1397,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>918.37</v>
+        <v>918.19</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1409,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>918.37</v>
+        <v>918.19</v>
       </c>
     </row>
   </sheetData>
@@ -1422,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1484,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>45</v>
+        <v>3814</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -1486,14 +1495,14 @@
       <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="9">
-        <v>1001.74</v>
+      <c r="E2" s="8">
+        <v>1000</v>
       </c>
       <c r="F2" s="6">
         <v>909.09</v>
       </c>
       <c r="G2" s="6">
-        <v>92.65</v>
+        <v>90.91</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1509,7 +1518,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>42</v>
+        <v>3812</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -1543,7 +1552,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>40</v>
+        <v>3778</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -1555,13 +1564,13 @@
         <v>34</v>
       </c>
       <c r="E4" s="9">
-        <v>1006.08</v>
+        <v>1009.09</v>
       </c>
       <c r="F4" s="6">
         <v>909.09</v>
       </c>
       <c r="G4" s="6">
-        <v>96.99</v>
+        <v>100</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -1577,25 +1586,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>47</v>
+        <v>3813</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="7">
-        <v>42064</v>
+        <v>42005</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E5" s="6">
-        <v>222.74</v>
+        <v>600</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>222.74</v>
+        <v>600</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -1611,7 +1620,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>38</v>
+        <v>3776</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -1705,7 +1714,7 @@
       <c r="B2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>42005</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -1732,7 +1741,7 @@
       <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>42005</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -1759,155 +1768,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>151</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7">
-        <v>42050</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>152</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>154</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7">
-        <v>42050</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,6 +1817,142 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>6863</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="20">
+        <v>42064</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>6864</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="20">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>6865</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="20">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>151</v>
       </c>
@@ -2013,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,95 +2063,87 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>151</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="22">
+        <v>6949</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="15">
-        <v>42064</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="23">
+        <v>42095</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>6950</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="23">
+        <v>42095</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>152</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>6951</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15">
-        <v>42064</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="C4" s="23">
+        <v>42095</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>154</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="15">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="H4" s="22" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2168,44 +2160,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2220,19 +2212,19 @@
         <v>42036</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -2247,20 +2239,20 @@
         <v>42036</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/2582-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2582-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -165,18 +170,9 @@
     <t>$ 5,000</t>
   </si>
   <si>
-    <t>L33</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
-    <t>$ 222.74</t>
-  </si>
-  <si>
     <t>Accrual</t>
   </si>
   <si>
@@ -199,13 +195,19 @@
   </si>
   <si>
     <t>$ 1,000</t>
+  </si>
+  <si>
+    <t>L106</t>
+  </si>
+  <si>
+    <t>$ 600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +228,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -339,9 +349,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -356,15 +363,49 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -413,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +487,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,6 +539,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1595,7 +1670,7 @@
         <v>42005</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6">
         <v>600</v>
@@ -1817,85 +1892,85 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="18">
         <v>6863</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>42064</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>6864</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="19">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>6865</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="19">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>6864</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="20">
-        <v>42064</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>6865</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="20">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2015,7 +2090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2063,86 +2138,86 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>6949</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>42095</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22" t="s">
-        <v>57</v>
+      <c r="G2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>6950</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>42095</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
-        <v>54</v>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <v>6951</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>42095</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>58</v>
+      <c r="H4" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2154,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="I10:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,86 +2248,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="7">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="7">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/2582-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2582-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -20,7 +20,7 @@
     <sheet name="Acc_Repayment" sheetId="9" r:id="rId6"/>
     <sheet name="Acc_Disbursement1" sheetId="7" r:id="rId7"/>
     <sheet name="Acc_Repayment1" sheetId="6" r:id="rId8"/>
-    <sheet name="Acc_Upfront" sheetId="10" r:id="rId9"/>
+    <sheet name="Acc_Upfront" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -197,10 +197,10 @@
     <t>$ 1,000</t>
   </si>
   <si>
-    <t>L106</t>
-  </si>
-  <si>
-    <t>$ 600</t>
+    <t>L355</t>
+  </si>
+  <si>
+    <t>$ 600</t>
   </si>
 </sst>
 </file>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -348,7 +348,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1507,7 +1506,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,85 +1891,85 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>6863</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>42064</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>6864</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>42064</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>6865</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>42064</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2138,56 +2137,56 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>6949</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>42095</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>6950</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>42095</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="20" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="6"/>
@@ -2195,28 +2194,28 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>6951</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>42095</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2230,55 +2229,43 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>286</v>
+        <v>468</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -2303,9 +2290,9 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>287</v>
+        <v>469</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>

--- a/Mifos Automation Excels/Client/2582-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2582-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -889,10 +889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,12 +909,13 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -954,17 +955,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -990,8 +992,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -1017,8 +1020,9 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1056,14 +1060,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1101,14 +1106,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1144,14 +1150,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>990.91</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1187,14 +1194,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>981.82</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1230,14 +1238,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>972.73</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1273,14 +1282,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>963.64</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1316,14 +1326,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>954.54</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1359,14 +1370,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>945.45</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1402,14 +1414,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>936.36</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1445,14 +1458,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>927.27</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1488,10 +1502,11 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>918.19</v>
       </c>
     </row>
@@ -2089,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,7 +2243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
